--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 19. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 19. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J565"/>
+  <dimension ref="A1:I565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="53" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="159" customWidth="1" min="8" max="8"/>
     <col width="121" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>EGEMENLİK MAHALLESİ 6133 SOKAK NO:14 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>EGEMENLİK MAHALLESİ 6146/7 SOKAK NO:26 İÇ KAPI NO: B06 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>MAVİŞEHİR MAH. 2042/1 SK. NO: 2/4 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO 103 1K-050 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>EGEMENLİK MAHALLESİ 6112 SK. NO: 4/ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>ADALET MAHALLESİ MANAS FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 280 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>EGEMENLİK MAHALLESİ 6108/1 SOK NO: 19A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>FATİH MAHALLESİ SANAYİ CADDESİ NO: 43 A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>EGEMENLİK MAHALLESİ 6114 SOKAK NO:11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>SERİNTEPE MAHALLESİ 4275 SK. NO: 5 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/33 SOKAK NO: 4 B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>IŞIKKENT EGEMENLİK MAHALLESİ 6116 SOKAK NO:22-24 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>NERGİZ MAHALLESİ GİRNE BULVARI NO:117/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>KEMALPAŞA MAH. 7405/1 SK. NO: 6 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>EGEMENLİK MAH. 6125/2 SK. NO: 14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>EGEMENLİK MAHALLESİ 6155 SOKAK NO:22 IŞIKKENT BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>EGEMENLİK MAH. 6123 SK. NO: 35 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>EGEMENLİK MAHALLESİ 6118 SK. NO: 16/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>EGEMENLİK MAH. 6110 SK. NO: 10 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>EGEMENLİK MAHALLESİ 6142 SOKAK NO:16 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SOKAK NO: 13 2/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>EGEMENLİK MAHALLESİ 6130 SOKAK NO:14/A IŞIKKENT / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>EGEMENLİK MAH. 6110 SK. NO: 24 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>EGEMENLİK MAH. 6135 SK. NO: 8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>EGEMENLİK MAH. 6148 SK. NO: 28 İÇ KAPI NO: 30 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>EGEMENLİK MAHALLESİ 6086 SK. NO: 32/11 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>EGEMENLİK MAHALLESİ 6139 SOKAK NO:27 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>EGEMENLİK MAH. 6140 SK. NO: 18 İÇ KAPI NO: B1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>GÜZELYALI MAH. 37 SK. NO: 6C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>EGEMENLİK MAHALLESİ 6130 SOKAK NO: 9 /1H/20 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>IŞIKLAR MAHALLESİ AYDINLAR CD. NO:75 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 5802 SOKAK NO:60 K:2 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>EGEMENLİK MAHALLESİ 6138/2 SOKAK NO:20 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>UĞUR MAHALLESİ 851 SOKAK DR.ŞAKİRBEY İŞ MKZ. BLOK NO:2 İÇ KAPI NO:Z02 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>EGEMENLİK MAHALLESİ 6123 SOKAK NO:46 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>EGEMENLİK MAH. 6116 SK. NO: 19 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>MİMAR SİNAN MAH. ZİYA GÖKALP BUL. NİYAZİ DENKER BLOK NO: 4 İÇ KAPI NO: 8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>FATİH MAHALLESİ 1192 SOK. NO:13 SARNIÇ GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>EGEMENLİK MAH. 6130 SK. NO: 9/2E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>EGEMENLİK MAHALLESİ 6134 SOKAK NO:12/E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 İZMİR OPTİMUM AVM. GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SK. NO:84 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>EGEMENLİK MAHALLESİ 6138 SOKAK NO:8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>EGEMENLİK MAHALLESİ 6108 SOKAK KARA NAK.SİTESİ C BLOK NO: 51/4C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>EGEMENLİK MAHALLESİ 6125 SOKAK NO:39 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>EGEMENLİK MAHALLESİ 6144 SOKAK NO: 8/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>EGEMENLİK MAHALLESİ 6155 SOKAK NO: 7 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>BARBAROS MAHALLESİ 5218 SOKAK NO: 4 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>EGEMENLİK MAH. 6115 SK. NO: 14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>EGEMENLİK MAH. 6119 SK. NO: 13/8 İÇ KAPI NO: 8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>EGEMENLİK MAHALLESİ 6144 SK. NO: 2 /2 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>KAZIMDİRİK MAH. 372 SK. FORUM C BLOK SİTESİ C BLOK NO: 30A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3130,11 +2854,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 İZMİR OPTİMUM OUTLET VE EĞLENCE MRK D:B1K-33</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3178,11 +2897,6 @@
           <t>EGEMENLİK MAHALLESİ 6111 SOKAK NO:12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3226,11 +2940,6 @@
           <t>KÜLTÜR MAHALLESİ TALATPAŞA BULVARI NO:2/A ALSANCAK / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3274,11 +2983,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK B BLOK Apt. NO: 28 G BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3322,11 +3026,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3370,11 +3069,6 @@
           <t>EGEMENLİK MAHALLESİ 6138/1 SOKAK NO:2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3418,11 +3112,6 @@
           <t>SIĞACIK MAH. AKKUM CAD. 24.BUTİK DÜKKAN GRUBU NO: 4-8C SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3466,11 +3155,6 @@
           <t>EGEMENLİK MAHALLESİ 6135 SOKAK NO:24 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3514,11 +3198,6 @@
           <t>EGEMENLİK MAH. 6112 SK. NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3562,11 +3241,6 @@
           <t>EGEMENLİK MAH. 6135 SK. BEDESTEN ÇARŞI NO: 9 İÇ KAPI NO: 260 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3610,11 +3284,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:41 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3658,11 +3327,6 @@
           <t>GÖKDERE MAH. GÖKDERE CAD. NO: 32 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3706,11 +3370,6 @@
           <t>EGEMENLİK MAH. 6147 SK. NO: 34 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3754,11 +3413,6 @@
           <t>EGEMENLİK MAHALLESİ 129 SOK. NO:12 AYAKKABICILAR SİTESİ IŞIKKENT / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3802,11 +3456,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SOKAK NO:7/12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3850,11 +3499,6 @@
           <t>ATATÜRK MAHALLESİ MEHMET AKİF CD. NO:72 OĞLANANASI MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3898,11 +3542,6 @@
           <t>EGEMENLİK MAHALLESİ 6139 SOKAK NO:38 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3946,11 +3585,6 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK NO:46 AYAKKABICILAR SİTESİ 31.BB.BLOK İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3994,11 +3628,6 @@
           <t>EGEMENLİK MAH. 6121 SK. MERKEZ ÇARŞI NO: 1 İÇ KAPI NO: 281 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4042,11 +3671,6 @@
           <t>EGEMENLİK MAHALLESİ 6154 SOKAK BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4090,11 +3714,6 @@
           <t>EGEMENLİK MAH. 6124 SK. NO: 28 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4138,11 +3757,6 @@
           <t>EGEMENLİK MAH. 6142 SK. NO: 12 İÇ KAPI NO: 101 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4186,11 +3800,6 @@
           <t>AŞIK VEYSEL MAH. YEŞİLLİK CAD. NO: 447-449 İÇ KAPI NO: 1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4234,11 +3843,6 @@
           <t>OĞLANANASI ATATÜRK MAH. 3 CAD. NO: 150 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4282,11 +3886,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/32 SK. NO: 1 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4330,11 +3929,6 @@
           <t>EGEMENLİK MAHALLESİ 6109 SOKAK NO:12 DAİRE:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4378,11 +3972,6 @@
           <t>GÜRPINAR MAHALLESİ 7004/12 SK. NO:2/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4426,11 +4015,6 @@
           <t>KÜLTÜR MAHALLESİ 1407 SOKAK NO:1/1B ALSANCAK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4474,11 +4058,6 @@
           <t>EGEMENLİK MAH. 6118 SK. NO: 9 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4522,11 +4101,6 @@
           <t>EGEMENLİK MAHALLESİ 6123 SOKAK NO: 24 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4570,11 +4144,6 @@
           <t>İSMET KAPTAN MAH. ŞEHİT NEVRES BUL. DEREN PLAZA BLOK NO: 10 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4618,11 +4187,6 @@
           <t>FATİH MAHALLESİ EGE CADDESI NO:28 SARNIÇ / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4666,11 +4230,6 @@
           <t>EGEMENLİK MAHALLESİ 6129 SK. NO:40 DAİRE:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4714,11 +4273,6 @@
           <t>FATİH MAHALLESİ 1191 SOK. NO:31/M SARNIÇ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4762,11 +4316,6 @@
           <t>KÜLTÜR MAHALLESİ ŞEVKET ÖZÇELİK SOKAK NO:1/B DOSTLUK APT. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4810,11 +4359,6 @@
           <t>GÖZTEPE MAHALLESİ MİTHATPAŞA CAD. NO:879/A İKBAL Sit. İKBAL Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4858,11 +4402,6 @@
           <t>EGEMENLİK MAHALLESİ 6131 SK. NO: 2 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4906,11 +4445,6 @@
           <t>EGEMENLİK MAHALLESİ 6129 SK. NO: 47 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4954,11 +4488,6 @@
           <t>EGEMENLİK MAH. 6106/22 SK. NO: 23 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5002,11 +4531,6 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK NO:14 AYAKKABICILAR SİTESİ 19.BB. BLOK İÇ KAPI NO:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5050,11 +4574,6 @@
           <t>EGEMENLİK MAHALLESİ 6133 SOKAK NO:10 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5098,11 +4617,6 @@
           <t>YILDIZ MAHALLESİ 437 SOKAK NO: 10 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5146,11 +4660,6 @@
           <t>EGEMENLİK MAHALLESİ 6147 SOKAK NO: 17 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5194,11 +4703,6 @@
           <t>EGEMENLİK MAHALLESİ 6123 SOKAK NO:37 IŞIKKENT BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5242,11 +4746,6 @@
           <t>EGEMENLİK MAHALLESİ 6116 SOKAK NO:15 AYAKKABICILAR SİT. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5290,11 +4789,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/17 SOKAK BUCA TAR.KAL.KOOP. SİTESİ NO: 15 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5338,11 +4832,6 @@
           <t>SELVİLİ MAHALLESİ 4019 SK. SİİRT BLOK NO: 53H KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5386,11 +4875,6 @@
           <t>EGEMENLİK MAHALLESİ 6115 SOKAK NO:17 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5434,11 +4918,6 @@
           <t>CAMİKEBİR MAHALLESİ 52/4 SK. NO:6/A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5482,11 +4961,6 @@
           <t>EGEMENLİK MAH. 6155 SK. NO: 39A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5530,11 +5004,6 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK NO:28 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5578,11 +5047,6 @@
           <t>EGEMENLİK MAH. 6147/1 SK. NO: 15 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5626,11 +5090,6 @@
           <t>TUNA MAH. 1710 SK. M.BALCI İŞHANI NO: 33 İÇ KAPI NO: 402 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5674,11 +5133,6 @@
           <t>EGEMENLİK MAHALLESİ 6125 SOKAK NO:13 IŞIKKENT / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5722,11 +5176,6 @@
           <t>EGEMENLİK MAHALLESİ 6152 SK. NO:2/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5770,11 +5219,6 @@
           <t>UMURBEY MAH. ŞEHİTLER CAD. NO: 10C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5818,11 +5262,6 @@
           <t>EGEMENLİK MAHALLESİ 133 SK. NO:28 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5866,11 +5305,6 @@
           <t>EGEMENLİK MAHALLESİ 6093 SOKAK DANACI AYAKKABI BLOK NO: 8 İÇ KAPI NO: A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5914,11 +5348,6 @@
           <t>EGEMENLİK MAH. 6093 SK. NO: 8/1A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5962,11 +5391,6 @@
           <t>EGEMENLİK MAH. 6106/20 SK. BUCA TAR.KAL.KOOP. SİTESİ NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6010,11 +5434,6 @@
           <t>EGEMENLİK MAHALLESİ 6152 SK. NO:20/0 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6058,11 +5477,6 @@
           <t>ATİLLA MAH. 474 SK. PINAR NO: 47A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6106,11 +5520,6 @@
           <t>EGEMENLİK MAH. 6106/18 SK. NO: 14B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6154,11 +5563,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6202,11 +5606,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 241 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6250,11 +5649,6 @@
           <t>AKTEPE MAHALLESİ AKÇAY CD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6298,11 +5692,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6346,11 +5735,6 @@
           <t>GÜRPINAR MAHALLESİ 7004 SK. NO:53 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6394,11 +5778,6 @@
           <t>EGEMENLİK MAH. 6132 SK. NO: 1C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6442,11 +5821,6 @@
           <t>EGEMENLİK MAHALLESİ 6124/2 SK. NO: 6 /3-/- BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6490,11 +5864,6 @@
           <t>GÜRPINAR MAHALLESİ 7225 SK. NO:1/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6538,11 +5907,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6586,11 +5950,6 @@
           <t>EGEMENLİK MAHALLESİ 6108/1 SOK NO: 11/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6634,11 +5993,6 @@
           <t>EGEMENLİK MAH. 6108 SK. SEPETÇİ SİTESİ A+B+C1+C2+C3+D1+D2+E1+E2+F1+F2 NO: 49/2N BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6682,11 +6036,6 @@
           <t>KONAK MAH. 859 SK. SARAY İŞHANI NO: 5 İÇ KAPI NO: 710 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6730,11 +6079,6 @@
           <t>KONAK MAHALLESİ 871 SOKAK NO:2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6778,11 +6122,6 @@
           <t>EGEMENLİK MAHALLESİ 6137 SK. NO: 6/ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6826,11 +6165,6 @@
           <t>EGEMENLİK MAH. 6091 SK. NO: 10 İÇ KAPI NO: A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6874,11 +6208,6 @@
           <t>EGEMENLİK MAH. 6144 SK. NO: 2 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6922,11 +6251,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SOKAK NO:7/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6970,11 +6294,6 @@
           <t>EGEMENLİK MAHALLESİ 6123 SOKAK NO:38/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7018,11 +6337,6 @@
           <t>EGEMENLİK MAHALLESİ 6123 SOKAK NO:39 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7066,11 +6380,6 @@
           <t>EGEMENLİK MAH. 6112 SK. NO: 32 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7114,11 +6423,6 @@
           <t>ÇETİN EMEÇ MAH. MODA SK. NO: 7J İÇ KAPI NO: Z03 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7162,11 +6466,6 @@
           <t>EGEMENLİK MAH. 6111 SK. NO: 5 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7210,11 +6509,6 @@
           <t>EGEMENLİK MAH. 6130 SK. NO: 12A İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7258,11 +6552,6 @@
           <t>EGEMENLİK MAHALLESİ 6130 SOKAK NO:12 IŞIKKENT BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7306,11 +6595,6 @@
           <t>MEHMET AKİF ERSOY MAH. 180 SK. NO: 4A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7354,11 +6638,6 @@
           <t>EGEMENLİK MAHALLESİ 6145 SOKAK NO: 16/Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7402,11 +6681,6 @@
           <t>EGEMENLİK MAHALLESİ 6130 SOKAK NO:12/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7450,11 +6724,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B43 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7498,11 +6767,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK NO: 103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7546,11 +6810,6 @@
           <t>EGEMENLİK MAHALLESİ 6112 SOKAK NO:18 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7594,11 +6853,6 @@
           <t>ALSANCAK MAH. 1459 SK. NO: 3A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7642,11 +6896,6 @@
           <t>EGEMENLİK MAHALLESİ 6133 SOKAK NO: 18/0 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7690,11 +6939,6 @@
           <t>EGEMENLİK MAH. 6110 SK. NO: 29 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7738,11 +6982,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SOKAK NO:1/8 IŞIKKENT AYAKKABICILAR SİTESİ IŞIKKENT BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7786,11 +7025,6 @@
           <t>ETİLER MAHALLESİ 1264 SOKAK NO:11/301 RUKEN IS HANI Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7834,11 +7068,6 @@
           <t>EGEMENLİK MAH. 6119 SK. NO: 11B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7882,11 +7111,6 @@
           <t>EGEMENLİK MAHALLESİ 6146 SOKAK NO:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7930,11 +7154,6 @@
           <t>EGEMENLİK MAH. 6136 SK. NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7978,11 +7197,6 @@
           <t>EGEMENLİK MAHALLESİ 6136 SOKAK NO:13 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8026,11 +7240,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SK. NO: 9/- BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8074,11 +7283,6 @@
           <t>EGEMENLİK MAHALLESİ 6138 SK. NO: 59/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8122,11 +7326,6 @@
           <t>EGEMENLİK MAH. 6122 SK. NO: 13 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8170,11 +7369,6 @@
           <t>BALATÇIK MAH. 8791 SK. NO: 7 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8218,11 +7412,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ GAZİ BLV. GEYIK NAKIYAT SİT. NO: 187/2 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8266,11 +7455,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8314,11 +7498,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO:3/1B44 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8362,11 +7541,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8410,11 +7584,6 @@
           <t>UĞUR MUMCU MAH. 5770/7 SK. NO: 37 İÇ KAPI 1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8458,11 +7627,6 @@
           <t>ALAYBEY MAHALLESİ MEHMET İHSAN ZEYREK SK. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8506,11 +7670,6 @@
           <t>EGEMENLİK MAH. 6142 SK. NO: 17 İÇ KAPI NO: A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8554,11 +7713,6 @@
           <t>EGEMENLİK MAHALLESİ 6139 SOKAK NO:45/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8602,11 +7756,6 @@
           <t>GÜRPINAR MAH. 7004 SK. NO: 32 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8650,11 +7799,6 @@
           <t>EGEMENLİK MAHALLESİ 6118 SOKAK NO:58 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8698,11 +7842,6 @@
           <t>EGEMENLİK MAH. 6124/1 SK. NO: 20 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8746,11 +7885,6 @@
           <t>EGEMENLİK MAHALLESİ 6138 SOKAK NO:56 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8794,11 +7928,6 @@
           <t>EGEMENLİK MAH. 6140 SK. NO: 11 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8842,11 +7971,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8890,11 +8014,6 @@
           <t>EGEMENLİK MAHALLESİ 6110 SOKAK NO:16/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8938,11 +8057,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 5754 SK. NO: 13/101 KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8986,11 +8100,6 @@
           <t>EGEMENLİK MAH. 6143 SK. NO: 7 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9034,11 +8143,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO:208 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9082,11 +8186,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9130,11 +8229,6 @@
           <t>EGEMENLİK MAHALLESİ 6082 SOKAK NO: 11 İÇ KAPI NO: 31 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9178,11 +8272,6 @@
           <t>EGEMENLİK MAHALLESİ 6123 SOKAK NO:3/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9226,11 +8315,6 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK NO:48/2 AYAKKABICILAR SİT. 39.BB. APT. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9274,11 +8358,6 @@
           <t>EGEMENLİK MAHALLESİ 6144 SK. NO: 6/A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9322,11 +8401,6 @@
           <t>EGEMENLİK MAHALLESİ 6138/1 SK. NO: 8 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9370,11 +8444,6 @@
           <t>MANAVKUYU MAHALLESİ ALİJA İZZET BEGOVİÇ CADDESİ NO:64/1/D BAYRAKLI BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9418,11 +8487,6 @@
           <t>EGEMENLİK MAHALLESİ 6118 SOKAK NO:8 IŞIKKENT / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9466,11 +8530,6 @@
           <t>EGEMENLİK MAH. 6147 SK. NO: 40A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9514,11 +8573,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9562,11 +8616,6 @@
           <t>EGEMENLİK MAH. 6130 SK. NO: 7/11 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9610,11 +8659,6 @@
           <t>EGEMENLİK MAH. 6135 SK. BEDESTEN ÇARŞI NO: 9 İÇ KAPI NO: 160 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9658,11 +8702,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CADDESİ NO:9 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9706,11 +8745,6 @@
           <t>BALATÇIK MAHALLESİ 8923/1 SOKAK ÇİĞLİ EFESUS OUTLET CENTER MAĞAZA NO:2/A-2/B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9754,11 +8788,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CAD. AGORA Apt. NO: 32/Z14 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9802,11 +8831,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CADDESİ NO:22 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9850,11 +8874,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CAD. NO: 46 İÇ KAPI NO: Z14 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9898,11 +8917,6 @@
           <t>AHMET EFENDİ MAHALLESİ 8920/1 SK. NO: 1A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9946,11 +8960,6 @@
           <t>ATAŞEHİR MAHALLESİ YENİ HAVAALANI CADDESİ NO:40 ÇİĞLİ KİPA ALIŞVERİŞ MERKEZİ DAİRE:105 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9994,11 +9003,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK D Apt. NO: 26 K BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10042,11 +9046,6 @@
           <t>EMREZ MAHALLESİ AKÇAY CADDESİ NO: 42F GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10090,11 +9089,6 @@
           <t>AKTEPE MAHALLESİ AKÇAY CD. NO:42 20 M III a PAFTA 96 ADA 57 PARSEL GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10134,11 +9128,6 @@
           <t>BEYAZEVLER MAHALLESİ NO:ZK-015 İZMİR OPTİMUM OUTLET VE EĞLENCE MERKEZİ</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10182,11 +9171,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO: 101/ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10230,11 +9214,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CADDESİ NO: 156 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10278,11 +9257,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40/Z09 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10326,11 +9300,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ MODA SOKAK NO:7/H B-BLOK MAĞAZA NO:Z-05 NOVADA OUTLET BALÇOVA AVM BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10374,11 +9343,6 @@
           <t>DOĞANLAR MAHALLESİ ANKARA CADDESI NO:192 PARK BORNOVA AVM MAĞAZA NO:Z18 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10422,11 +9386,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SOKAK A BLOK NO: 84 İÇ KAPI NO: Z28 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10470,11 +9429,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SK. NO: 84/121 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10518,11 +9472,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SK. NO: 14 H/_ BALÇOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10566,11 +9515,6 @@
           <t>YENİKENT MAHALLESİ SAMANYOLU SK. NO:6/25 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10614,11 +9558,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1/1B45 BAYRAKLI BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10662,11 +9601,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1/Z64 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10710,11 +9644,6 @@
           <t>EGEMENLİK MAHALLESİ 6150 SOKAK NO: 10 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10758,11 +9687,6 @@
           <t>EGEMENLİK MAHALLESİ 6131 SK. NO: 3 B BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10806,11 +9730,6 @@
           <t>TUNA MAHALLESİ SANAT CADDESI NO:17/G SELÇUKLU İŞ MRK ÇAMDİBİ BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10854,11 +9773,6 @@
           <t>EGEMENLİK MAH. 6125 SK. NO: 23 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10902,11 +9816,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO: 3 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10950,11 +9859,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 156 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -10998,11 +9902,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 OPTİMUM ALIŞVERİŞ MERKEZİ Apt. İZMİR OPTİMUM ALIŞVERİŞ MERKEZİ GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11046,11 +9945,6 @@
           <t>EGEMENLİK MAH. 6093 SK. NO: 8/1A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11094,11 +9988,6 @@
           <t>YENİGÜN MAH. 1313 SK. PAKOĞLU İŞ MERKEZİ NO: 23 İÇ KAPI NO: 61 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11142,11 +10031,6 @@
           <t>FATİH MAHALLESİ 1179 SK. NO: 23 -/- GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11190,11 +10074,6 @@
           <t>FATİH MAHALLESİ 1179 SK. NO: 23 -/- GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11238,11 +10117,6 @@
           <t>GÖKDERE MAHALLESİ GÖKDERE CAD. NO: 24 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11286,11 +10160,6 @@
           <t>MUSTAFA KEMAL MAHALLESİ GAZETECİ YAZAR İSMAİL SİVRİ BULVARI NO:327/4 İÇ KAPI NO:1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11334,11 +10203,6 @@
           <t>KESTELLİ MAHALLESİ 919 SOKAK NO:16/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11382,11 +10246,6 @@
           <t>EGEMENLİK MAHALLESİ 6118 SOKAK NO:31 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11430,11 +10289,6 @@
           <t>EGEMENLİK MAHALLESİ 6086 SOKAK NO:25 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11478,11 +10332,6 @@
           <t>EGEMENLİK MAHALLESİ 6086 SOKAK BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11526,11 +10375,6 @@
           <t>EGEMENLİK MAHALLESİ 6131 SOKAK NO:3/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11574,11 +10418,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296/2 SK. NO:33 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11622,11 +10461,6 @@
           <t>EGEMENLİK MAH. 6111 SK. NO: 17 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11670,11 +10504,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SOKAK NO: 7/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11718,11 +10547,6 @@
           <t>EGEMENLİK MAH. 6134 SK. NO: 12A İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11766,11 +10590,6 @@
           <t>EGEMENLİK MAH. 6130 SK. NO: 16/9 İÇ KAPI NO: 9 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11814,11 +10633,6 @@
           <t>EGEMENLİK MAHALLESİ 6130 SOKAK NO: 7 2/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11862,11 +10676,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SK. NO: 13 4/4 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11910,11 +10719,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CAD. NO: 46/Z32 BALÇOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11958,11 +10762,6 @@
           <t>CAMİKEBİR MAH. 52/3 SK. NO: 11 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12006,11 +10805,6 @@
           <t>EGEMENLİK MAHALLESİ 6118 SOKAK NO:22 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12054,11 +10848,6 @@
           <t>EGEMENLİK MAHALLESİ 6085 SOKAK NO: 4 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12102,11 +10891,6 @@
           <t>EGEMENLİK MAHALLESİ 6139 SOKAK NO: 51 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12150,11 +10934,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/33 SOKAK NO:3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12198,11 +10977,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/34 SOKAK NO:4/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12246,11 +11020,6 @@
           <t>EGEMENLİK MAH. 6133 SK. NO: 22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12294,11 +11063,6 @@
           <t>EGEMENLİK MAHALLESİ 6086 SOKAK NO:34/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12342,11 +11106,6 @@
           <t>EGEMENLİK MAHALLESİ 6094 SOKAK NO:4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12390,11 +11149,6 @@
           <t>EGEMENLİK MAH. AYDINLAR CAD. NO: 36 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12438,11 +11192,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SOKAK NO:1/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12486,11 +11235,6 @@
           <t>EGEMENLİK MAHALLESİ 6147 SOKAK NO: 31A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12534,11 +11278,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SOKAK NO: 13 1/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12582,11 +11321,6 @@
           <t>EGEMENLİK MAH. 6130 SK. NO: 9C İÇ KAPI NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12630,11 +11364,6 @@
           <t>EGEMENLİK MAHALLESİ 6125 SOKAK NO: 33 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12678,11 +11407,6 @@
           <t>EGEMENLİK MAH. 6130 SK. NO: 9G BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12726,11 +11450,6 @@
           <t>EGEMENLİK MAHALLESİ 6086 SOKAK NO: 21 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12774,11 +11493,6 @@
           <t>EGEMENLİK MAH. 6140 SK. ŞERİFE SABAN SİTESİ A NO: 6A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12822,11 +11536,6 @@
           <t>EGEMENLİK MAH. 6116 SK. NO: 39 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12870,11 +11579,6 @@
           <t>BİRLİK MAH. KEMALPAŞA CAD. NO: 273 İÇ KAPI NO: 31 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12918,11 +11622,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 2B19 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12966,11 +11665,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13014,11 +11708,6 @@
           <t>EGEMENLİK MAH. 6141 SK. NO: 4/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13062,11 +11751,6 @@
           <t>EGEMENLİK MAHALLESİ AYDINLAR CAD. NO:20/A IŞIKKENT / İZMİR</t>
         </is>
       </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13110,11 +11794,6 @@
           <t>EGEMENLİK MAH. 6123 SK. NO: 35 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13158,11 +11837,6 @@
           <t>EGEMENLİK MAH. AYDINLAR CAD. NO: 45A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13206,11 +11880,6 @@
           <t>EGEMENLİK MAH. 6108/1 SK. NO: 17 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13254,11 +11923,6 @@
           <t>KOZAĞAÇ MAH. 263 SK. NO: 28A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13302,11 +11966,6 @@
           <t>EGEMENLİK MAHALLESİ 6155 SOKAK NO: 10A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13350,11 +12009,6 @@
           <t>EGEMENLİK MAH. 6112 SK. NO: 26 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13398,11 +12052,6 @@
           <t>EGEMENLİK MAH. 6140 SK. NO: 61-63 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -13446,11 +12095,6 @@
           <t>ERGENE MAHALLESİ YÜZBAŞI İBRAHİM HAKKI CAD. NO:5/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -13494,11 +12138,6 @@
           <t>EGEMENLİK MAHALLESİ 6122 SK. NO:23 DAİRE:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -13542,11 +12181,6 @@
           <t>EMİR SULTAN MAH. GAZİLER CAD. YENİŞEHİR İŞ MERKEZİ NO: 478A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -13590,11 +12224,6 @@
           <t>YALI MAHALLESİ 6522 SOK. HİLLTOVVN AVM BLOK NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -13638,11 +12267,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1 İÇ KAPI NO: 1B54 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -13686,11 +12310,6 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK MERKEZ ÇARŞI BLOK NO: 1 İÇ KAPI NO: 401 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -13734,11 +12353,6 @@
           <t>EGEMENLİK MAHALLESİ 6139/1 SOKAK NO:9 DAİRE:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -13782,11 +12396,6 @@
           <t>EGEMENLİK MAHALLESİ 6155 SOKAK NO:23/101 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -13830,11 +12439,6 @@
           <t>EGEMENLİK MAHALLESİ 6155 SK. MEHMET KAYA SİT. NO: 2/21 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -13878,11 +12482,6 @@
           <t>EGEMENLİK MAH. 6146/7 SK. NO: 24 İÇ KAPI NO: 202 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -13926,11 +12525,6 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ GİRNE BLV. NO: 164 A KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -13974,11 +12568,6 @@
           <t>ŞEMİKLER MAH. 6221/3 SK. MODEKSA MOBİLYA NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14022,11 +12611,6 @@
           <t>EGEMENLİK MAHALLESİ 6138/2 SOKAK NO:34 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14070,11 +12654,6 @@
           <t>EGEMENLİK MAHALLESİ 6112 SK. TİCARET İŞ MERKEZİ SİT. NO: 1/Z10 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -14118,11 +12697,6 @@
           <t>EGEMENLİK MAHALLESİ 6131 SOKAK NO: 6 C/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -14166,11 +12740,6 @@
           <t>EGEMENLİK MAHALLESİ 6144 SOKAK NO:28/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -14214,11 +12783,6 @@
           <t>EGEMENLİK MAHALLESİ 6146 SOKAK NO:6/A IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -14262,11 +12826,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -14310,11 +12869,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SOKAK NO:14/K BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -14358,11 +12912,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO:3/253 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -14406,11 +12955,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK NO: 103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -14454,11 +12998,6 @@
           <t>MAVİŞEHİR MAH. AZİZ NESİN BUL. NO: 26 İÇ KAPI NO: Z11 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -14502,11 +13041,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/Z61 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -14550,11 +13084,6 @@
           <t>YUNUS EMRE MAHALLESİ SIRRI ATALAY SK. NO:33/A KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J294" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -14598,11 +13127,6 @@
           <t>EGEMENLİK MAH. 6135 SK. BEDESTEN ÇARŞI NO: 9 İÇ KAPI NO: Z63 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -14646,11 +13170,6 @@
           <t>EGEMENLİK MAHALLESİ 6118 SOKAK NO:45/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J296" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -14694,11 +13213,6 @@
           <t>FATİH MAHALLESİ ÇAMLIK CAD. NO: 7 B GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J297" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -14742,11 +13256,6 @@
           <t>EGEMENLİK MAH. 6135 SK. BEDESTEN ÇARŞI NO: 9 İÇ KAPI NO: Z22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -14790,11 +13299,6 @@
           <t>FAHRETTİN ALTAY MAH. MEHMETÇİK BUL. İRFAN NO: 18B İÇ KAPI NO: B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J299" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -14838,11 +13342,6 @@
           <t>EGEMENLİK MAH. 6133 SK. NO: 22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J300" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -14886,11 +13385,6 @@
           <t>FATİH MAHALLESİ SANAYI CADDESI NO:9 SARNIÇ GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -14934,11 +13428,6 @@
           <t>KONAK MAHALLESİ İPEK PAZARI CADDESİ NO:4 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J302" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -14982,11 +13471,6 @@
           <t>GÜRPINAR MAHALLESİ 7225 SK. NO: 1 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -15030,11 +13514,6 @@
           <t>EGEMENLİK MAHALLESİ 6122 SK. NO: 32/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -15078,11 +13557,6 @@
           <t>EGEMENLİK MAH. 6118 SK. NO: 12 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -15126,11 +13600,6 @@
           <t>EGEMENLİK MAHALLESİ 6138 SOKAK NO: 44 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -15174,11 +13643,6 @@
           <t>EGEMENLİK MAHALLESİ 6131 SOKAK BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -15222,11 +13686,6 @@
           <t>KESTELLİ MAH. 919 SK. NO: 48 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -15270,11 +13729,6 @@
           <t>KESTELLİ MAHALLESİ 919 SOKAK NO:48 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -15318,11 +13772,6 @@
           <t>EGEMENLİK MAH. 6119 SK. NO: 9 İÇ KAPI NO: A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J310" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -15366,11 +13815,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z71 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -15414,11 +13858,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -15462,11 +13901,6 @@
           <t>EGEMENLİK MAH. 6121 SK. MERKEZ ÇARŞI NO: 1 İÇ KAPI NO: Z21 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -15510,11 +13944,6 @@
           <t>EGEMENLİK MAH. 6154 SK. NO: 2 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J314" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -15558,11 +13987,6 @@
           <t>FATİH MAH. 1192 SK. NO: 13 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J315" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -15606,11 +14030,6 @@
           <t>EGEMENLİK MAH. 6112 SK. TİCARET MERKEZİ BLOK NO: 1 İÇ KAPI NO: Z36 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J316" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -15654,11 +14073,6 @@
           <t>ATAŞEHİR MAHALLESİ YENİ HAVAALANI CADDESİ NO:40/Z83 KİPA ALIŞVERİŞ MERKEZİ ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J317" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -15702,11 +14116,6 @@
           <t>MAVİŞEHİR MAH. CAHER DUDAYEV BUL. MAVİ BAHÇE NO: 40 İÇ KAPI NO: 202 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J318" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -15750,11 +14159,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 OPTİMUM ALIŞVERİŞ MERKEZİ Apt. GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J319" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -15798,11 +14202,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/Z12 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J320" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -15846,11 +14245,6 @@
           <t>EGEMENLİK MAHALLESİ 6130 SOKAK NO:9/I BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -15894,11 +14288,6 @@
           <t>TUNA MAH. KEMALPAŞA CAD. NO: 126 İÇ KAPI NO: 102 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -15942,11 +14331,6 @@
           <t>UFUK MAHALLESİ ŞEHİT ÇAĞLAR YÜCEL SK. NO:5/A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -15990,11 +14374,6 @@
           <t>EGEMENLİK MAH. 6117 SK. NO: 7 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -16038,11 +14417,6 @@
           <t>EGEMENLİK MAHALLESİ 6112 SOKAK NO:32 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -16086,11 +14460,6 @@
           <t>EGEMENLİK MAHALLESİ 6109 SK. NO: 16 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -16134,11 +14503,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296/2 SOKAK NO:33 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -16182,11 +14546,6 @@
           <t>GÜRPINAR MAHALLESİ 7232 SOKAK AY-KOOP SİTESİ NO: 25A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -16230,11 +14589,6 @@
           <t>EGEMENLİK MAHALLESİ 6071 SOKAK NO: 1/1A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J329" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -16278,11 +14632,6 @@
           <t>EGEMENLİK MAHALLESİ 6139 SOKAK NO:41-43 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -16326,11 +14675,6 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK MERKEZ ÇARŞI BLOK NO: 1 İÇ KAPI NO: 346 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -16374,11 +14718,6 @@
           <t>EGEMENLİK MAHALLESİ 6071 SK. NO: 4 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -16422,11 +14761,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B153 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -16470,11 +14804,6 @@
           <t>GÜRPINAR MAH. 7048 SK. NO: 19 İÇ KAPI NO: A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J334" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -16518,11 +14847,6 @@
           <t>GÜRPINAR MAH. 7232/8 SK. AY-KOOP SİTESİ NO: 10A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J335" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -16566,11 +14890,6 @@
           <t>EGEMENLİK MAH. 6109 SK. NO: 5 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J336" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -16614,11 +14933,6 @@
           <t>EGEMENLİK MAHALLESİ 6135 SOKAK NO: 26 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J337" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -16662,11 +14976,6 @@
           <t>EGEMENLİK MAHALLESİ 6124/1 SOKAK NO:26 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J338" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -16710,11 +15019,6 @@
           <t>MERİÇ MAHALLESİ 5743 SOKAK NO:44 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J339" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -16758,11 +15062,6 @@
           <t>EGEMENLİK MAHALLESİ 6124/2 SOKAK NO:14/A EGEMENLİK MAH. 6124/2 SK. NO: 14A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J340" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -16806,11 +15105,6 @@
           <t>GÜRPINAR MAHALLESİ 7004 SK. NO:32/A PINARBAŞI BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -16854,11 +15148,6 @@
           <t>EGEMENLİK MAHALLESİ 6133 SOKAK NO:20 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -16902,11 +15191,6 @@
           <t>EGEMENLİK MAHALLESİ 6130 SOKAK NO:11 IŞIKKENT BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -16950,11 +15234,6 @@
           <t>FEVZİ ÇAKMAK MAH. SAKARYA CAD. NEYYİR NO: 100A İÇ KAPI NO: 7 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -16998,11 +15277,6 @@
           <t>ETİLER MAHALLESİ 1266 SOKAK NO:6 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -17046,11 +15320,6 @@
           <t>EGEMENLİK MAHALLESİ 6088 SK. ALİ ÖZKAN SİT. NO: 5/101 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J346" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -17094,11 +15363,6 @@
           <t>ALAYBEY MAHALLESİ ŞEHİT ASIM AKSOY CADDESİ NO:27/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J347" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -17142,11 +15406,6 @@
           <t>TUNA MAHALLESİ SALAH BİRSEL SK. NO: 22 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J348" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -17190,11 +15449,6 @@
           <t>EGEMENLİK MAHALLESİ 6138/2 SOKAK NO: 18 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J349" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -17238,11 +15492,6 @@
           <t>EGEMENLİK MAHALLESİ 6124 SOKAK NO:41/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J350" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -17286,11 +15535,6 @@
           <t>EGEMENLİK MAH. 6149 SK. NO: 12 İÇ KAPI NO: 31 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J351" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -17334,11 +15578,6 @@
           <t>EFELER MAHALLESİ MENDERES CADDESI NO:153/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J352" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -17382,11 +15621,6 @@
           <t>EGEMENLİK MAH. 6129 SK. NO: 25 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J353" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -17430,11 +15664,6 @@
           <t>EGEMENLİK MAH. 6110 SK. NO: 19 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J354" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -17478,11 +15707,6 @@
           <t>GÜZELYURT MAHALLESİ 927 SOKAK NO:31 DAİRE:101 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J355" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -17526,11 +15750,6 @@
           <t>OSMAN AKSÜNER MAHALLESİ YEŞİLLİK CAD. HALİL ALKAN HAN BLOK NO: 165 İÇ KAPI NO: 22 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J356" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -17574,11 +15793,6 @@
           <t>EGEMENLİK MAHALLESİ 6125/2 SOK NO:13 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J357" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -17622,11 +15836,6 @@
           <t>GÖKDERE MAH. GÖKDERE CAD. NO: 12/3B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J358" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -17670,11 +15879,6 @@
           <t>EGEMENLİK MAHALLESİ 6088 SOKAK NO: 5/202 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J359" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -17718,11 +15922,6 @@
           <t>GÖKDERE MAH. GÖKDERE CAD. NO: 24 İÇ KAPI NO: 21 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J360" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -17766,11 +15965,6 @@
           <t>EGEMENLİK MAHALLESİ 6146 SOKAK NO:11 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J361" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -17814,11 +16008,6 @@
           <t>EGEMENLİK MAHALLESİ 6125 SOKAK NO:9 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J362" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -17862,11 +16051,6 @@
           <t>FATİH MAHALLESİ 1192 SOK. NO:13 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J363" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -17910,11 +16094,6 @@
           <t>EGEMENLİK MAHALLESİ 6133 SOKAK NO:16 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J364" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -17958,11 +16137,6 @@
           <t>CAMİKEBİR MAH. ATATÜRK CAD. NO: 2A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J365" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -18006,11 +16180,6 @@
           <t>ÜMİT MAHALLESİ 7408/6 SK. BOY KARDEŞLER SİTESİ NO: 12D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J366" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -18054,11 +16223,6 @@
           <t>ALAÇATI MAHALLESİ KEMALPAŞA CAD. NO:36/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J367" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -18102,11 +16266,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J368" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -18150,11 +16309,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 11/1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J369" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -18198,11 +16352,6 @@
           <t>EGEMENLİK MAH. 6124 SK. NO: 34 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J370" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -18246,11 +16395,6 @@
           <t>EGEMENLİK MAHALLESİ 6134 SK. NO: 2 C BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J371" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -18294,11 +16438,6 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK NO:1/152 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J372" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -18342,11 +16481,6 @@
           <t>KEMALPAŞA MAHALLESİ KEMALPAŞA CAD. NO: 336 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J373" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -18390,11 +16524,6 @@
           <t>EGEMENLİK MAHALLESİ 6123 SK. NO: 42/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J374" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -18438,11 +16567,6 @@
           <t>EGEMENLİK MAHALLESİ 6093 SOKAK NO:16 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J375" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -18486,11 +16610,6 @@
           <t>EGEMENLİK MAH. 6122 SK. NO: 38 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J376" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -18534,11 +16653,6 @@
           <t>EGEMENLİK MAHALLESİ 6129 SOKAK NO:59/E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J377" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -18582,11 +16696,6 @@
           <t>KEMALPAŞA MAH. 7403 SK. NO: 18 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J378" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -18630,11 +16739,6 @@
           <t>EGEMENLİK MAH. 6130 SK. NO: 7/20 İÇ KAPI NO: 20 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J379" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -18678,11 +16782,6 @@
           <t>EGEMENLİK MAHALLESİ 6112 SOKAK NO:36 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J380" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -18726,11 +16825,6 @@
           <t>EGEMENLİK MAHALLESİ 6109 SOKAK NO:17 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J381" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -18774,11 +16868,6 @@
           <t>KONAK MAH. ANAFARTALAR CAD. SALEPÇİOĞLU VAKIF ÇARŞI İŞHANI NO: 96G KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J382" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -18822,11 +16911,6 @@
           <t>KAZIMDİRİK MAH. 372 SK. B BLOK NO: 28O BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J383" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -18870,11 +16954,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B155 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J384" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -18918,11 +16997,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J385" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -18966,11 +17040,6 @@
           <t>R.ŞEVKET İNCE MAH. 2148/9 SK. NO: 1 İÇ KAPI NO: 163 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J386" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -19014,11 +17083,6 @@
           <t>KILIÇ REİS MAH. ŞÜKRÜ SARAÇOĞLU CAD. FİLİZ NO: 15B İÇ KAPI NO: Z03 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -19062,11 +17126,6 @@
           <t>EGEMENLİK MAHALLESİ 6093/2 SK. NO: 8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -19110,11 +17169,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/30 SOKAK NO:2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -19158,11 +17212,6 @@
           <t>BARBAROS MAHALLESİ 5454 SK. ÜRÜNKENT SİT. NO: 39 -1E/0 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -19206,11 +17255,6 @@
           <t>EGEMENLİK MAHALLESİ 6138/1 SOKAK NO: 5 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J391" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -19254,11 +17298,6 @@
           <t>YENİKALE MAH. SÜTÇÜLER CAD. NO: 7 İÇ KAPI NO: 1 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J392" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -19302,11 +17341,6 @@
           <t>KÜLTÜR MAHALLESİ 1407 SK. BAŞARAN APT. NO: 1 B/1B KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J393" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -19350,11 +17384,6 @@
           <t>EGEMENLİK MAH. 6154 SK. NO: 8 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J394" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -19398,11 +17427,6 @@
           <t>EGEMENLİK MAH. 6147/1 SK. NO: 22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J395" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -19446,11 +17470,6 @@
           <t>EGEMENLİK MAH. 6084 SK. SELAHATTİN DOĞANTEKİN SİTESİ NO: 8A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J396" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -19494,11 +17513,6 @@
           <t>EGEMENLİK MAHALLESİ 6124 SOKAK NO:7/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J397" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -19542,11 +17556,6 @@
           <t>EGEMENLİK MAHALLESİ 6093/2 SK. NO:8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J398" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -19590,11 +17599,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SOKAK NO:15/7 İÇ KAPI NO: 7 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J399" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -19638,11 +17642,6 @@
           <t>EGEMENLİK MAH. 6124/1 SK. NO: 29 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J400" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -19686,11 +17685,6 @@
           <t>BALATÇIK MAH. 8916 SK. NO: 23 İÇ KAPI NO: 3 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J401" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -19734,11 +17728,6 @@
           <t>EGEMENLİK MAHALLESİ 6134 SOKAK NO: 8O BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J402" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -19782,11 +17771,6 @@
           <t>ALTINTAŞ MAH. İNÖNÜ CAD. HAYRETTİN BEY BLOK NO: 164A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J403" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -19830,11 +17814,6 @@
           <t>EGEMENLİK MAH. 6125/2 SK. NECDET ULUSOY SİTESİ NO: 5 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J404" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -19878,11 +17857,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SOKAK NO: 13/10 İÇ KAPI NO: 10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J405" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -19926,11 +17900,6 @@
           <t>EGEMENLİK MAH. 6139/2 SK. NO: 10 İÇ KAPI NO: A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J406" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -19974,11 +17943,6 @@
           <t>ATAŞEHİR MAHALLESİ 8001 SOKAK NO:23/A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J407" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -20022,11 +17986,6 @@
           <t>EGEMENLİK MAHALLESİ 6146/7 SOKAK NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J408" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -20070,11 +18029,6 @@
           <t>EGEMENLİK MAH. 6138/2 SK. NO: 12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J409" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -20118,11 +18072,6 @@
           <t>GÜRPINAR MAH. 7225 SK. NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J410" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -20166,11 +18115,6 @@
           <t>EGEMENLİK MAH. 6155 SK. NO: 23A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J411" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -20214,11 +18158,6 @@
           <t>EGEMENLİK MAH. 6111 SK. NO: 4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J412" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -20262,11 +18201,6 @@
           <t>FATİH MAHALLESİ ÇAMLIK CADDESİ NO:7/B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J413" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -20310,11 +18244,6 @@
           <t>EGEMENLİK MAHALLESİ 6141 SOKAK NO:1/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J414" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -20358,11 +18287,6 @@
           <t>EGEMENLİK MAHALLESİ 6141 SOKAK NO:1/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J415" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -20406,11 +18330,6 @@
           <t>EGEMENLİK MAHALLESİ 6147 SK. NO: 41/Z1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J416" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -20454,11 +18373,6 @@
           <t>EGEMENLİK MAH. 6153 SK. NO: 15 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J417" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -20502,11 +18416,6 @@
           <t>EGEMENLİK MAHALLESİ 86 SOK. NO:11 IŞIKKENT / İZMİR</t>
         </is>
       </c>
-      <c r="J418" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -20550,11 +18459,6 @@
           <t>EGEMENLİK MAHALLESİ AYDINLAR CAD. NO: 16/A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J419" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -20598,11 +18502,6 @@
           <t>EGEMENLİK MAH. 6093 SK. NO: 8/1B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J420" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -20646,11 +18545,6 @@
           <t>EGEMENLİK MAHALLESİ 6086 SOKAK NO:16/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J421" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -20694,11 +18588,6 @@
           <t>EGEMENLİK MAHALLESİ 6086 SOKAK NO:14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J422" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -20742,11 +18631,6 @@
           <t>YUNUS EMRE MAHALLESİ 4184 SOKAK NO:4 İÇ KAPI NO: 101 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J423" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -20790,11 +18674,6 @@
           <t>EGEMENLİK MAHALLESİ 6134 SOKAK NO:12/C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J424" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -20838,11 +18717,6 @@
           <t>EGEMENLİK MAH. 6144 SK. NO: 29 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J425" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -20886,11 +18760,6 @@
           <t>EGEMENLİK MAH. AYDINLAR CAD. ALİ ÖZKAN SİTESİ NO: 16A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J426" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -20934,11 +18803,6 @@
           <t>KEMALPAŞA OSB MAH. NİF SANAYİ CAD. NO: 31 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J427" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -20982,11 +18846,6 @@
           <t>EGEMENLİK MAH. 6116 SK. NO: 30 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J428" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -21030,11 +18889,6 @@
           <t>GÖZTEPE MAHALLESİ MİTHATPAŞA CAD. ZİYA BEY APT. NO: 998/1 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J429" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -21078,11 +18932,6 @@
           <t>İSMET KAPTAN MAHALLESİ ŞEHİT NEVRES BULVARI DEREN PLAZA BLOK NO: 10 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J430" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -21126,11 +18975,6 @@
           <t>EGEMENLİK MAH. 6144 SK. NO: 28A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J431" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -21174,11 +19018,6 @@
           <t>TUNA MAH. KEMALPAŞA CAD. NO: 126 İÇ KAPI NO: 102 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J432" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -21222,11 +19061,6 @@
           <t>YALI MAHALLESİ 6522 SOK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J433" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -21270,11 +19104,6 @@
           <t>EGEMENLİK MAHALLESİ 6142 SK. NO: 9 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J434" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -21318,11 +19147,6 @@
           <t>EGEMENLİK MAHALLESİ 6131 SOKAK NO:10/C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J435" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -21366,11 +19190,6 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK AYAKKABICILAR Sit. 19.BB. Apt. NO: 10/2- BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J436" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -21414,11 +19233,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/33 SOKAK NO:4/C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J437" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -21462,11 +19276,6 @@
           <t>EGEMENLİK MAHALLESİ 6110 SOKAK NO: 15 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J438" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -21510,11 +19319,6 @@
           <t>EGEMENLİK MAHALLESİ 6118 SOKAK NO: 60 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J439" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -21558,11 +19362,6 @@
           <t>EGEMENLİK MAH. 6123 SK. NO: 40 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J440" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -21606,11 +19405,6 @@
           <t>EGEMENLİK MAHALLESİ 6146 SOKAK NO:37/Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J441" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -21654,11 +19448,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B149 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J442" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -21702,11 +19491,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. FORUM SİTESİ A4 BLOK NO: 32DD BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J443" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -21750,11 +19534,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO: 3 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J444" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -21798,11 +19577,6 @@
           <t>EGEMENLİK MAH. 6143 SK. NO: 3A İÇ KAPI NO: 22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J445" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -21846,11 +19620,6 @@
           <t>EGEMENLİK MAHALLESİ AYDINLAR CAD. NO:21 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J446" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -21894,11 +19663,6 @@
           <t>EGEMENLİK MAH. 6151 SK. NO: 11 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J447" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -21942,11 +19706,6 @@
           <t>BOSTANLI MAHALLESİ İSMAİL SİVRİ SOK. HASAN BEY BLOK NO: 10A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J448" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -21990,11 +19749,6 @@
           <t>EGEMENLİK MAHALLESİ 6118 SOKAK NO:62 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J449" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -22038,11 +19792,6 @@
           <t>DOĞANLAR MAH. 1580 SK. DEVLET TIYATROSU ATOLYESI SİTESİ NO: 25E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J450" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -22086,11 +19835,6 @@
           <t>EGEMENLİK MAHALLESİ 6135 SOKAK NO:26 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J451" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -22134,11 +19878,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO: 32 AA BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J452" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -22182,11 +19921,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 HİLLTOVVN AVM Sit. NO: 3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -22230,11 +19964,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B46 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -22278,11 +20007,6 @@
           <t>FATİH MAHALLESİ SANAYİ CADDESİ NO: 43 A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -22326,11 +20050,6 @@
           <t>EGEMENLİK MAH. 6110 SK. NO: 14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -22374,11 +20093,6 @@
           <t>İNÖNÜ MAHALLESİ 9 EYLÜL CADDESİ NO:50/A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -22422,11 +20136,6 @@
           <t>EGEMENLİK MAH. 6134 SK. NO: 10A İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -22470,11 +20179,6 @@
           <t>UMURBEY MAHALLESİ 1511 SOKAK NO:7 ALSANCAK / İZMİR</t>
         </is>
       </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -22518,11 +20222,6 @@
           <t>EGEMENLİK MAH. 6112 SK. NO: 50 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J460" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -22566,11 +20265,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SOKAK NO:7/10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J461" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -22614,11 +20308,6 @@
           <t>BARBAROS MAHALLESİ 110 SOK. NO:10 IŞIKKENT SİTESİ ÇAMDİBİ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J462" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -22662,11 +20351,6 @@
           <t>EGEMENLİK MAHALLESİ 6118 SOKAK NO:14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J463" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -22710,11 +20394,6 @@
           <t>EGEMENLİK MAHALLESİ 6129 SOKAK NO:14 IŞIKKENT BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J464" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -22758,11 +20437,6 @@
           <t>EGEMENLİK MAHALLESİ 6138/1 SOKAK NO: 7 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J465" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -22806,11 +20480,6 @@
           <t>DEVRİM MAHALLESİ 3753 SOK. NO:4A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J466" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -22854,11 +20523,6 @@
           <t>EGEMENLİK MAH. 6109 SK. NO: 27 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J467" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -22902,11 +20566,6 @@
           <t>ZEYTİNLİK MAH. GÜRÇEŞME CAD. NO: 105/8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J468" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -22950,11 +20609,6 @@
           <t>KEMALPAŞA MAHALLESİ 7401/2 SOKAK NO: 4 İÇ KAPI NO: 22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J469" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -22998,11 +20652,6 @@
           <t>AYDIN MAHALLESİ 4323 SOKAK NO: 6 A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J470" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -23046,11 +20695,6 @@
           <t>MERİÇ MAHALLESİ 5746/4 SOKAK NO:21/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J471" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -23094,11 +20738,6 @@
           <t>EGEMENLİK MAH. 6155 SK. KESOVA NO: 11 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J472" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -23142,11 +20781,6 @@
           <t>EGEMENLİK MAH. 6123 SK. NO: 17 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J473" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -23190,11 +20824,6 @@
           <t>EGEMENLİK MAHALLESİ 6139 SOKAK NO:13 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -23238,11 +20867,6 @@
           <t>EGEMENLİK MAHALLESİ 6138/2 SOKAK NO: 14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J475" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -23286,11 +20910,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CADDESİ NO:135 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J476" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -23334,11 +20953,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CADDESİ NO:72 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J477" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -23382,11 +20996,6 @@
           <t>EGEMENLİK MAH. 6138/2 SK. NO: 22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J478" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -23430,11 +21039,6 @@
           <t>EGEMENLİK MAHALLESİ 6109 SOKAK NO: 25 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J479" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -23478,11 +21082,6 @@
           <t>EGEMENLİK MAH. 6118 SK. NO: 30 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J480" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -23526,11 +21125,6 @@
           <t>EGEMENLİK MAHALLESİ 6112 SOKAK TİCARET İŞ MERKEZİ Sit. NO: 1/Z24 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J481" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -23574,11 +21168,6 @@
           <t>EGEMENLİK MAHALLESİ 6112 SOKAK TİCARET MERKEZİ BLOK NO: 1 İÇ KAPI NO: 220 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J482" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -23622,11 +21211,6 @@
           <t>EGEMENLİK MAHALLESİ 6140 SOKAK NO: 25A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J483" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -23670,11 +21254,6 @@
           <t>EGEMENLİK MAHALLESİ 6130 SOKAK NO:12/A İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J484" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -23718,11 +21297,6 @@
           <t>MANSUROĞLU MAHALLESİ HAŞİM İŞCAN CAD. NO:43/B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J485" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -23766,11 +21340,6 @@
           <t>KASIMPAŞA MAHALLESİ ATATÜRK CAD. NO:115/A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J486" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -23814,11 +21383,6 @@
           <t>EGEMENLİK MAH. 6121 SK. MERKEZ ÇARŞI NO: 1 İÇ KAPI NO: B32 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J487" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -23862,11 +21426,6 @@
           <t>EGEMENLİK MAHALLESİ 6135 SK. NO:56 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J488" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -23910,11 +21469,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/32 SOKAK NO: 1 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J489" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -23958,11 +21512,6 @@
           <t>EGEMENLİK MAHALLESİ 6133 SOKAK NO:12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -24006,11 +21555,6 @@
           <t>EGEMENLİK MAH. 6147/1 SK. NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -24054,11 +21598,6 @@
           <t>EGEMENLİK MAHALLESİ 6129 SOKAK NO:13/0 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -24102,11 +21641,6 @@
           <t>EGEMENLİK MAHALLESİ 6148 SOKAK NO:17/B1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -24150,11 +21684,6 @@
           <t>EGEMENLİK MAHALLESİ 6110 SOKAK NO:18 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -24198,11 +21727,6 @@
           <t>EGEMENLİK MAHALLESİ 6124/1 SK. NO: 24/ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -24246,11 +21770,6 @@
           <t>EGEMENLİK MAHALLESİ 6151 SK. NO:18 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -24294,11 +21813,6 @@
           <t>EGEMENLİK MAHALLESİ AYDINLAR CAD. NO:20/B KAT:2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J497" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -24342,11 +21856,6 @@
           <t>NERGİZ MAHALLESİ 6000 SK. İLKNUR BLOK NO: 6B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J498" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -24390,11 +21899,6 @@
           <t>EGEMENLİK MAH. 6146/7 SK. NO: 28 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J499" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -24438,11 +21942,6 @@
           <t>EGEMENLİK MAHALLESİ 6116 SOKAK NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J500" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -24486,11 +21985,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SOKAK BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J501" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -24534,11 +22028,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 B1K-067-069 İZMİR OPTİMUM AVM. GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J502" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -24582,11 +22071,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 HİLLTOVVN AVM Sit. İNŞAAT Apt. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J503" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -24630,11 +22114,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO:1/144 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J504" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -24678,11 +22157,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z68 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J505" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -24726,11 +22200,6 @@
           <t>IŞIKKENT MAHALLESİ 6122 SOKAK NO:9 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J506" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -24774,11 +22243,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ MODA SOKAK HOTİÇ Sit. C BLOK Apt. NO: 3 B/Z035 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J507" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -24822,11 +22286,6 @@
           <t>KÜLTÜR MAHALLESİ MUSTAFA ENVER BEY CADDESİ NO:11 A/11A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J508" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -24870,11 +22329,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J509" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -24918,11 +22372,6 @@
           <t>EGEMENLİK MAH. 6124 SK. NO: 32 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J510" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -24966,11 +22415,6 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK MERKEZ ÇARŞI BLOK NO: 1 İÇ KAPI NO: Z36 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J511" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -25014,11 +22458,6 @@
           <t>EGEMENLİK MAHALLESİ 6134 SOKAK NO:8/D İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J512" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -25062,11 +22501,6 @@
           <t>EGEMENLİK MAHALLESİ 6078 SOKAK NO:22/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J513" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -25110,11 +22544,6 @@
           <t>TOKOĞLU MAHALLESİ KEMALPAŞA CAD. NO:54/A ALAÇATI ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J514" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -25158,11 +22587,6 @@
           <t>İSMET İNÖNÜ MAH. 2001 SK. NO: 30A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J515" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -25206,11 +22630,6 @@
           <t>ALSANCAK MAHALLESİ CUMHURİYET BULVARI NO:217/A ALSANCAK / İZMİR</t>
         </is>
       </c>
-      <c r="J516" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -25254,11 +22673,6 @@
           <t>ALSANCAK MAH. 1479 SK. KENET SİTESİ BLOK NO: 13D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J517" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -25302,11 +22716,6 @@
           <t>EGEMENLİK MAHALLESİ 6117 SOKAK NO:11 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J518" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -25350,11 +22759,6 @@
           <t>EGEMENLİK MAHALLESİ 6114/1 SOKAK NO:8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J519" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -25398,11 +22802,6 @@
           <t>EGEMENLİK MAHALLESİ 6114 SOKAK NO:13 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J520" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -25446,11 +22845,6 @@
           <t>EGEMENLİK MAH. 6137 SK. NO: 24 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J521" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -25494,11 +22888,6 @@
           <t>EGEMENLİK MAHALLESİ 6111 SOKAK NO:22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J522" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -25542,11 +22931,6 @@
           <t>MERSİNLİ MAHALLESİ 2823/1 SK. NO: 16 C KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J523" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -25590,11 +22974,6 @@
           <t>EGEMENLİK MAHALLESİ 6134 SOKAK NO: 8 I BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J524" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -25638,11 +23017,6 @@
           <t>EGEMENLİK MAH. 6140 SK. MEHMET KAYA SİTESİ NO: 51A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J525" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -25686,11 +23060,6 @@
           <t>EGEMENLİK MAHALLESİ MAHALLESİ 6140 SK. NO:49/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J526" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -25734,11 +23103,6 @@
           <t>EGEMENLİK MAH. 6144 SK. NO: 21-23 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J527" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -25782,11 +23146,6 @@
           <t>EGEMENLİK MAHALLESİ 6147 SOKAK NO:35 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J528" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -25830,11 +23189,6 @@
           <t>EGEMENLİK MAHALLESİ 6130 SOKAK NO:7/5 İÇ KAPI NO: 5 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J529" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -25878,11 +23232,6 @@
           <t>EGEMENLİK MAH. 6151 SK. NO: 15A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J530" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -25926,11 +23275,6 @@
           <t>AOSB MAHALLESİ M.KEMAL ATATÜRK BLV. NO: 58 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J531" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -25974,11 +23318,6 @@
           <t>EGEMENLİK MAH. 6119 SK. NO: 5/6 İÇ KAPI NO: 6 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J532" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -26022,11 +23361,6 @@
           <t>EGEMENLİK MAH. 6136 SK. NO: 12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J533" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -26070,11 +23404,6 @@
           <t>EGEMENLİK MAHALLESİ 6071 SOKAK NO: 32A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J534" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -26118,11 +23447,6 @@
           <t>EGEMENLİK MAH. 6124/2 SK. NO: 10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J535" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -26166,11 +23490,6 @@
           <t>AŞIK VEYSEL MAH. 4045 SK. NO: 13 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J536" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -26214,11 +23533,6 @@
           <t>EGEMENLİK MAHALLESİ 6123 SOKAK NO:10 DAİRE:12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J537" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -26262,11 +23576,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J538" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -26310,11 +23619,6 @@
           <t>EGEMENLİK MAHALLESİ 6086 SK. NO: 32 A-/- BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J539" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -26358,11 +23662,6 @@
           <t>EGEMENLİK MAHALLESİ 6130 SOKAK NO: 16 /1/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J540" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -26406,11 +23705,6 @@
           <t>MERİÇ MAHALLESİ 5746/7 SK. NO: 10/2 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J541" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -26454,11 +23748,6 @@
           <t>İNÖNÜ MAHALLESİ İNKILAP CAD. NO:86/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J542" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -26502,11 +23791,6 @@
           <t>EGEMENLİK MAHALLESİ 6123 SOKAK NO:22/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J543" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -26550,11 +23834,6 @@
           <t>EGEMENLİK MAH. 6145 SK. NO: 6 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J544" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -26598,11 +23877,6 @@
           <t>GÜRPINAR MAHALLESİ 7004/12 SK. NO:2/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J545" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -26646,11 +23920,6 @@
           <t>EGEMENLİK MAH. 6152 SK. NO: 7 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J546" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -26694,11 +23963,6 @@
           <t>ZAFER MAHALLESİ 2352 SK. NO:6 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J547" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -26742,11 +24006,6 @@
           <t>EGEMENLİK MAHALLESİ AYDINLAR CAD. NO:25 KAT:1 IŞIKKENT BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J548" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -26790,11 +24049,6 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK AYAKKABICILAR Sit. 31.BB. Apt. NO: 36/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J549" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -26838,11 +24092,6 @@
           <t>EGEMENLİK MAH. 6106/33 SK. NO: 4C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J550" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -26886,11 +24135,6 @@
           <t>EGEMENLİK MAHALLESİ 6088 SOKAK NO:22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J551" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -26934,11 +24178,6 @@
           <t>EGEMENLİK MAHALLESİ 6143 SK. YAVUZ SEPET SİT. NO: 11 A/_ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J552" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -26982,11 +24221,6 @@
           <t>EGEMENLİK MAH. 6129 SK. NO: 27 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J553" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -27030,11 +24264,6 @@
           <t>EGEMENLİK MAHALLESİ 6110 SOKAK NO:9/1 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J554" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -27078,11 +24307,6 @@
           <t>EGEMENLİK MAHALLESİ 6119 SOKAK AYAKKABICILAR Sit. NO: 11 B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J555" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -27126,11 +24350,6 @@
           <t>ÜMİT MAH. 7408/2 SK. NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J556" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -27174,11 +24393,6 @@
           <t>IŞIKLAR MAHALLESİ 6093/2 SOKAK NO:8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J557" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -27222,11 +24436,6 @@
           <t>EĞİTİM MAHALLESİ EKREM GÜER NO:143 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J558" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -27270,11 +24479,6 @@
           <t>EGEMENLİK MAHALLESİ 6088 SOKAK ALİ ÖZKAN Sit. NO: 5/201 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J559" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -27318,11 +24522,6 @@
           <t>EGEMENLİK MAHALLESİ 6124 SOKAK NO:10/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J560" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -27366,11 +24565,6 @@
           <t>YENİKENT MAHALLESİ SAMANYOLU SK. NO:6/4 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J561" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -27414,11 +24608,6 @@
           <t>BAHÇELİEVLER MAH. GİRNE BUL. ERŞEN NO: 176 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J562" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -27462,11 +24651,6 @@
           <t>EGEMENLİK MAH. 6145 SK. NO: 26 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J563" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -27510,11 +24694,6 @@
           <t>EGEMENLİK MAH. 6140 SK. NO: 1 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J564" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -27556,11 +24735,6 @@
       <c r="I565" s="2" t="inlineStr">
         <is>
           <t>EGEMENLİK MAH. 6130 SK. NO: 7/5 İÇ KAPI NO: 5 BORNOVA / İZMİR</t>
-        </is>
-      </c>
-      <c r="J565" s="2" t="inlineStr">
-        <is>
-          <t>19 - AYAKKABI GRUBU</t>
         </is>
       </c>
     </row>
